--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Spring.010920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Spring.010920.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -983,12 +983,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1025,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1953,12 +1953,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2839,12 +2839,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2965,12 +2965,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3049,12 +3049,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3347,12 +3347,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4493,12 +4493,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4619,12 +4619,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5131,12 +5131,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5425,12 +5425,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6055,12 +6055,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6643,12 +6643,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6685,12 +6685,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6811,12 +6811,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7147,12 +7147,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7357,12 +7357,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7609,12 +7609,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7655,12 +7655,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8411,12 +8411,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8495,12 +8495,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9549,12 +9549,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9843,12 +9843,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10137,12 +10137,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10603,12 +10603,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10939,12 +10939,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11275,12 +11275,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12245,12 +12245,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12287,12 +12287,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12329,12 +12329,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12413,12 +12413,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12539,12 +12539,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12791,12 +12791,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13127,12 +13127,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13253,12 +13253,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13421,12 +13421,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13505,12 +13505,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13715,12 +13715,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13757,12 +13757,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14135,12 +14135,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14261,12 +14261,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14387,12 +14387,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14471,12 +14471,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14597,12 +14597,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15353,12 +15353,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15777,12 +15777,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16239,12 +16239,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16323,12 +16323,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16953,12 +16953,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17751,12 +17751,12 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18977,12 +18977,12 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19187,12 +19187,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19523,12 +19523,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19565,12 +19565,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19859,12 +19859,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20237,12 +20237,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20699,12 +20699,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20741,12 +20741,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20951,12 +20951,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21291,12 +21291,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -21585,12 +21585,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21669,12 +21669,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22257,12 +22257,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22299,12 +22299,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22551,12 +22551,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22593,12 +22593,12 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23059,12 +23059,12 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23269,12 +23269,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23773,12 +23773,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23899,12 +23899,12 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24193,12 +24193,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24445,12 +24445,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24571,12 +24571,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25243,12 +25243,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25327,12 +25327,12 @@
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25705,12 +25705,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25747,12 +25747,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25999,12 +25999,12 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26083,12 +26083,12 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26209,12 +26209,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26335,12 +26335,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26545,12 +26545,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26633,12 +26633,12 @@
       <c r="H622" t="inlineStr"/>
       <c r="I622" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26675,12 +26675,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27011,12 +27011,12 @@
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27137,12 +27137,12 @@
       <c r="H634" t="inlineStr"/>
       <c r="I634" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27389,12 +27389,12 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27725,12 +27725,12 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28103,12 +28103,12 @@
       <c r="H657" t="inlineStr"/>
       <c r="I657" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28187,12 +28187,12 @@
       <c r="H659" t="inlineStr"/>
       <c r="I659" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28271,12 +28271,12 @@
       <c r="H661" t="inlineStr"/>
       <c r="I661" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28481,12 +28481,12 @@
       <c r="H666" t="inlineStr"/>
       <c r="I666" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28859,12 +28859,12 @@
       <c r="H675" t="inlineStr"/>
       <c r="I675" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29111,12 +29111,12 @@
       <c r="H681" t="inlineStr"/>
       <c r="I681" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29363,12 +29363,12 @@
       <c r="H687" t="inlineStr"/>
       <c r="I687" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29531,12 +29531,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30337,12 +30337,12 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30379,12 +30379,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31391,12 +31391,12 @@
       <c r="H735" t="inlineStr"/>
       <c r="I735" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32105,12 +32105,12 @@
       <c r="H752" t="inlineStr"/>
       <c r="I752" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32147,12 +32147,12 @@
       <c r="H753" t="inlineStr"/>
       <c r="I753" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32651,12 +32651,12 @@
       <c r="H765" t="inlineStr"/>
       <c r="I765" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32907,12 +32907,12 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32949,12 +32949,12 @@
       <c r="H772" t="inlineStr"/>
       <c r="I772" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33159,12 +33159,12 @@
       <c r="H777" t="inlineStr"/>
       <c r="I777" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33243,12 +33243,12 @@
       <c r="H779" t="inlineStr"/>
       <c r="I779" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33369,12 +33369,12 @@
       <c r="H782" t="inlineStr"/>
       <c r="I782" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33411,12 +33411,12 @@
       <c r="H783" t="inlineStr"/>
       <c r="I783" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33453,12 +33453,12 @@
       <c r="H784" t="inlineStr"/>
       <c r="I784" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34335,12 +34335,12 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34377,12 +34377,12 @@
       <c r="H806" t="inlineStr"/>
       <c r="I806" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34461,12 +34461,12 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -34503,12 +34503,12 @@
       <c r="H809" t="inlineStr"/>
       <c r="I809" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34671,12 +34671,12 @@
       <c r="H813" t="inlineStr"/>
       <c r="I813" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34885,12 +34885,12 @@
       <c r="H818" t="inlineStr"/>
       <c r="I818" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35057,12 +35057,12 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35477,12 +35477,12 @@
       <c r="H832" t="inlineStr"/>
       <c r="I832" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36191,12 +36191,12 @@
       <c r="H849" t="inlineStr"/>
       <c r="I849" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36737,12 +36737,12 @@
       <c r="H862" t="inlineStr"/>
       <c r="I862" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37115,12 +37115,12 @@
       <c r="H871" t="inlineStr"/>
       <c r="I871" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37241,12 +37241,12 @@
       <c r="H874" t="inlineStr"/>
       <c r="I874" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
